--- a/biology/Zoologie/Falsiformica_cretacea/Falsiformica_cretacea.xlsx
+++ b/biology/Zoologie/Falsiformica_cretacea/Falsiformica_cretacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Falsiformica cretacea est une espèce éteinte d'hyménoptères appartenant à la super-famille Vespoidea.
-Elle est le seul membre du genre Falsiformica. Selon Fossilworks[2], les genres Falsiformica et Taimyrisphex seraient les deux seuls genres rattachés à la famille des Falsiformicidae. 
+Elle est le seul membre du genre Falsiformica. Selon Fossilworks, les genres Falsiformica et Taimyrisphex seraient les deux seuls genres rattachés à la famille des Falsiformicidae. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Distribution géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les spécimens ont été trouvés par Rasnitsyn[1] dans de l'ambre de Taïmyr, découverte dans la péninsule de Taïmyr, en Russie, au nord de la Sibérie centrale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les spécimens ont été trouvés par Rasnitsyn dans de l'ambre de Taïmyr, découverte dans la péninsule de Taïmyr, en Russie, au nord de la Sibérie centrale.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Datation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont datés de la base du Crétacé supérieur, de l'étage du Cénomanien, datant d'il y a environ 95 Ma (millions d'années).
 </t>
